--- a/xlsx/latsenrom_horse_terms_counts.xlsx
+++ b/xlsx/latsenrom_horse_terms_counts.xlsx
@@ -142,7 +142,7 @@
     <t>līnijrati</t>
   </si>
   <si>
-    <t xml:space="preserve">melnis </t>
+    <t>melnis</t>
   </si>
   <si>
     <t>omnibuss</t>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>2</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="BR9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BS9">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>8</v>
       </c>
       <c r="BR13">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BS13">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AT15">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>23</v>
       </c>
       <c r="BR15">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BS15">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT16">
         <v>26</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT17">
         <v>6</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>9</v>
       </c>
       <c r="BR18">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BS18">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT20">
         <v>25</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AT21">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT22">
         <v>6</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT23">
         <v>6</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>13</v>
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>6</v>
       </c>
       <c r="AE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28">
         <v>5</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT29">
         <v>3</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT30">
         <v>0</v>
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT31">
         <v>0</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT32">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT33">
         <v>5</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="BR33">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BS33">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -9528,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -10182,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="BO39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BP39">
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AT42">
         <v>7</v>
@@ -11272,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>10</v>
@@ -11490,7 +11490,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="AT44">
         <v>0</v>
@@ -11565,7 +11565,7 @@
         <v>4</v>
       </c>
       <c r="BR44">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BS44">
         <v>0</v>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -11926,10 +11926,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AT47">
         <v>9</v>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT49">
         <v>0</v>
@@ -12798,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>0</v>
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AT51">
         <v>21</v>
@@ -13159,82 +13159,82 @@
         <v>0</v>
       </c>
       <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>1</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
         <v>3</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>1</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>0</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>28</v>
       </c>
       <c r="AT52">
         <v>0</v>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AT53">
         <v>2</v>
@@ -13670,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AT54">
         <v>5</v>
@@ -13736,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="BO54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP54">
         <v>0</v>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AT55">
         <v>2</v>
@@ -14106,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>1</v>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AT57">
         <v>17</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT58">
         <v>0</v>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT59">
         <v>0</v>
@@ -14978,10 +14978,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -15154,7 +15154,7 @@
         <v>10</v>
       </c>
       <c r="AE61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="AT61">
         <v>3</v>
@@ -15262,7 +15262,7 @@
         <v>0</v>
       </c>
       <c r="BO61">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BP61">
         <v>3</v>
@@ -15271,7 +15271,7 @@
         <v>6</v>
       </c>
       <c r="BR61">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BS61">
         <v>0</v>
@@ -15339,7 +15339,7 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AT62">
         <v>0</v>
@@ -15632,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT63">
         <v>0</v>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="AT64">
         <v>6</v>
@@ -16068,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AT65">
         <v>0</v>
@@ -16211,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -16286,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT66">
         <v>0</v>
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT67">
         <v>0</v>
@@ -16579,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="BR67">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BS67">
         <v>0</v>
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AT69">
         <v>7</v>
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="AT71">
         <v>0</v>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="BR71">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BS71">
         <v>0</v>
@@ -17552,7 +17552,7 @@
         <v>2</v>
       </c>
       <c r="AE72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -17669,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="BR72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BS72">
         <v>0</v>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -17812,7 +17812,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>0</v>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT74">
         <v>10</v>
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AT75">
         <v>7</v>
@@ -18323,7 +18323,7 @@
         <v>2</v>
       </c>
       <c r="BR75">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BS75">
         <v>0</v>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AT76">
         <v>6</v>
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="BR76">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BS76">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -19120,7 +19120,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT79">
         <v>0</v>
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AT80">
         <v>0</v>
@@ -19481,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -19556,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT81">
         <v>0</v>
@@ -19774,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT82">
         <v>0</v>
@@ -19992,7 +19992,7 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -20210,7 +20210,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AT84">
         <v>0</v>
@@ -20386,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="AE85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="AT85">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT86">
         <v>9</v>
@@ -20864,7 +20864,7 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -21040,7 +21040,7 @@
         <v>0</v>
       </c>
       <c r="AE88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -21082,7 +21082,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AT88">
         <v>0</v>
@@ -21300,7 +21300,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT89">
         <v>0</v>
@@ -21518,7 +21518,7 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT90">
         <v>0</v>
@@ -21736,7 +21736,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="AT91">
         <v>2</v>
@@ -21811,7 +21811,7 @@
         <v>5</v>
       </c>
       <c r="BR91">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BS91">
         <v>0</v>
@@ -21954,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AT92">
         <v>0</v>
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="BR92">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BS92">
         <v>0</v>
@@ -22172,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT93">
         <v>4</v>
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -22608,7 +22608,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT95">
         <v>2</v>
@@ -22751,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U96">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT96">
         <v>5</v>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AT97">
         <v>10</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="BO97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP97">
         <v>0</v>
@@ -23119,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="BR97">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BS97">
         <v>0</v>
@@ -23262,7 +23262,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT98">
         <v>0</v>
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="AS99">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT99">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ100">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -23916,7 +23916,7 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0</v>
@@ -24134,7 +24134,7 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -24352,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT103">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="BR103">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BS103">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT104">
         <v>0</v>
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="T105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U105">
         <v>0</v>
@@ -24788,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT105">
         <v>12</v>
@@ -25006,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="AT106">
         <v>3</v>
@@ -25224,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="AS107">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT107">
         <v>5</v>
@@ -25442,7 +25442,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT108">
         <v>2</v>
@@ -25660,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="AS109">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT109">
         <v>0</v>
@@ -25878,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="AS110">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT110">
         <v>3</v>
@@ -26096,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="AS111">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AT111">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>0</v>
       </c>
       <c r="AS112">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="AT112">
         <v>0</v>
@@ -26532,7 +26532,7 @@
         <v>0</v>
       </c>
       <c r="AS113">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AT113">
         <v>0</v>
@@ -26750,10 +26750,10 @@
         <v>0</v>
       </c>
       <c r="AS114">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="AT114">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT115">
         <v>0</v>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="AT116">
         <v>0</v>
@@ -27404,7 +27404,7 @@
         <v>0</v>
       </c>
       <c r="AS117">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT117">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="AS118">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="AS119">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AT119">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T120">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U120">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="AS120">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="AT120">
         <v>15</v>
@@ -28133,7 +28133,7 @@
         <v>6</v>
       </c>
       <c r="BR120">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BS120">
         <v>1</v>
@@ -28276,7 +28276,7 @@
         <v>0</v>
       </c>
       <c r="AS121">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -28419,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="T122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U122">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="AS122">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AT122">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="BH122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI122">
         <v>0</v>
@@ -28637,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="T123">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U123">
         <v>0</v>
@@ -28712,7 +28712,7 @@
         <v>0</v>
       </c>
       <c r="AS123">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT123">
         <v>0</v>
@@ -28787,7 +28787,7 @@
         <v>0</v>
       </c>
       <c r="BR123">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BS123">
         <v>0</v>
@@ -28930,7 +28930,7 @@
         <v>0</v>
       </c>
       <c r="AS124">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AT124">
         <v>0</v>
@@ -29106,7 +29106,7 @@
         <v>4</v>
       </c>
       <c r="AE125">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF125">
         <v>0</v>
@@ -29148,7 +29148,7 @@
         <v>0</v>
       </c>
       <c r="AS125">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="AT125">
         <v>2</v>
@@ -29223,7 +29223,7 @@
         <v>1</v>
       </c>
       <c r="BR125">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BS125">
         <v>0</v>
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -29584,7 +29584,7 @@
         <v>0</v>
       </c>
       <c r="AS127">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT127">
         <v>13</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AT128">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>0</v>
       </c>
       <c r="T129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129">
         <v>0</v>
@@ -30020,7 +30020,7 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="AS130">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT130">
         <v>0</v>
@@ -30456,7 +30456,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AT131">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="BO131">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BP131">
         <v>0</v>
@@ -30674,7 +30674,7 @@
         <v>0</v>
       </c>
       <c r="AS132">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AT132">
         <v>0</v>
@@ -30871,7 +30871,7 @@
         <v>0</v>
       </c>
       <c r="AL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM133">
         <v>0</v>
@@ -30892,7 +30892,7 @@
         <v>0</v>
       </c>
       <c r="AS133">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT133">
         <v>0</v>
@@ -31035,7 +31035,7 @@
         <v>0</v>
       </c>
       <c r="T134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U134">
         <v>0</v>
@@ -31110,7 +31110,7 @@
         <v>0</v>
       </c>
       <c r="AS134">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -31185,7 +31185,7 @@
         <v>2</v>
       </c>
       <c r="BR134">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS134">
         <v>0</v>
@@ -31328,7 +31328,7 @@
         <v>0</v>
       </c>
       <c r="AS135">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT135">
         <v>0</v>
@@ -31546,7 +31546,7 @@
         <v>0</v>
       </c>
       <c r="AS136">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AT136">
         <v>6</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="BQ136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR136">
         <v>11</v>
@@ -31689,7 +31689,7 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U137">
         <v>0</v>
@@ -31764,7 +31764,7 @@
         <v>0</v>
       </c>
       <c r="AS137">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AT137">
         <v>2</v>
@@ -31839,7 +31839,7 @@
         <v>0</v>
       </c>
       <c r="BR137">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS137">
         <v>0</v>
@@ -31982,7 +31982,7 @@
         <v>0</v>
       </c>
       <c r="AS138">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AT138">
         <v>28</v>
@@ -32200,7 +32200,7 @@
         <v>0</v>
       </c>
       <c r="AS139">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT139">
         <v>2</v>
@@ -32343,7 +32343,7 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U140">
         <v>0</v>
@@ -32418,7 +32418,7 @@
         <v>0</v>
       </c>
       <c r="AS140">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="AT140">
         <v>2</v>
@@ -32636,7 +32636,7 @@
         <v>0</v>
       </c>
       <c r="AS141">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT141">
         <v>3</v>
@@ -32854,7 +32854,7 @@
         <v>0</v>
       </c>
       <c r="AS142">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="AT142">
         <v>10</v>
@@ -33072,7 +33072,7 @@
         <v>0</v>
       </c>
       <c r="AS143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT143">
         <v>0</v>
@@ -33290,7 +33290,7 @@
         <v>0</v>
       </c>
       <c r="AS144">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="AT144">
         <v>7</v>
@@ -33508,7 +33508,7 @@
         <v>0</v>
       </c>
       <c r="AS145">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT145">
         <v>4</v>
@@ -33726,7 +33726,7 @@
         <v>0</v>
       </c>
       <c r="AS146">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AT146">
         <v>3</v>
@@ -33944,7 +33944,7 @@
         <v>0</v>
       </c>
       <c r="AS147">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AT147">
         <v>1</v>
@@ -34162,7 +34162,7 @@
         <v>0</v>
       </c>
       <c r="AS148">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="AT148">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>0</v>
       </c>
       <c r="AS149">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -34598,7 +34598,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -34673,7 +34673,7 @@
         <v>1</v>
       </c>
       <c r="BR150">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BS150">
         <v>0</v>
@@ -34816,7 +34816,7 @@
         <v>0</v>
       </c>
       <c r="AS151">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT151">
         <v>0</v>
@@ -35034,7 +35034,7 @@
         <v>0</v>
       </c>
       <c r="AS152">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AT152">
         <v>15</v>
@@ -35109,7 +35109,7 @@
         <v>1</v>
       </c>
       <c r="BR152">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BS152">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="AS153">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT153">
         <v>2</v>
@@ -35470,7 +35470,7 @@
         <v>0</v>
       </c>
       <c r="AS154">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT154">
         <v>2</v>
@@ -35688,7 +35688,7 @@
         <v>0</v>
       </c>
       <c r="AS155">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT155">
         <v>0</v>
@@ -35906,7 +35906,7 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT156">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="AS157">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="AT157">
         <v>0</v>
@@ -36342,7 +36342,7 @@
         <v>0</v>
       </c>
       <c r="AS158">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AT158">
         <v>0</v>
@@ -36560,7 +36560,7 @@
         <v>0</v>
       </c>
       <c r="AS159">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="AT159">
         <v>0</v>
@@ -36778,7 +36778,7 @@
         <v>0</v>
       </c>
       <c r="AS160">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AT160">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="AS161">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT161">
         <v>0</v>
@@ -37097,7 +37097,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -37214,7 +37214,7 @@
         <v>0</v>
       </c>
       <c r="AS162">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="AT162">
         <v>2</v>
@@ -37432,7 +37432,7 @@
         <v>0</v>
       </c>
       <c r="AS163">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AT163">
         <v>2</v>
@@ -37492,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="BM163">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BN163">
         <v>0</v>
@@ -37650,7 +37650,7 @@
         <v>0</v>
       </c>
       <c r="AS164">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT164">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="AS165">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT165">
         <v>0</v>
@@ -38086,7 +38086,7 @@
         <v>0</v>
       </c>
       <c r="AS166">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AT166">
         <v>2</v>
@@ -38259,7 +38259,7 @@
         <v>0</v>
       </c>
       <c r="AD167">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE167">
         <v>2</v>
@@ -38304,7 +38304,7 @@
         <v>0</v>
       </c>
       <c r="AS167">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AT167">
         <v>0</v>
@@ -38522,7 +38522,7 @@
         <v>0</v>
       </c>
       <c r="AS168">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AT168">
         <v>3</v>
@@ -38665,7 +38665,7 @@
         <v>0</v>
       </c>
       <c r="T169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U169">
         <v>0</v>
@@ -38740,7 +38740,7 @@
         <v>0</v>
       </c>
       <c r="AS169">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT169">
         <v>0</v>
@@ -38800,7 +38800,7 @@
         <v>1</v>
       </c>
       <c r="BM169">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BN169">
         <v>0</v>
@@ -38958,7 +38958,7 @@
         <v>0</v>
       </c>
       <c r="AS170">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="AT170">
         <v>9</v>
@@ -39176,7 +39176,7 @@
         <v>0</v>
       </c>
       <c r="AS171">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT171">
         <v>0</v>
@@ -39394,7 +39394,7 @@
         <v>0</v>
       </c>
       <c r="AS172">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AT172">
         <v>3</v>
@@ -39469,7 +39469,7 @@
         <v>0</v>
       </c>
       <c r="BR172">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS172">
         <v>0</v>
@@ -39612,7 +39612,7 @@
         <v>0</v>
       </c>
       <c r="AS173">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT173">
         <v>0</v>
@@ -39830,7 +39830,7 @@
         <v>0</v>
       </c>
       <c r="AS174">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT174">
         <v>0</v>
@@ -40048,7 +40048,7 @@
         <v>0</v>
       </c>
       <c r="AS175">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AT175">
         <v>2</v>
@@ -40266,7 +40266,7 @@
         <v>0</v>
       </c>
       <c r="AS176">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT176">
         <v>0</v>
@@ -40484,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="AS177">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AT177">
         <v>5</v>
@@ -40702,7 +40702,7 @@
         <v>0</v>
       </c>
       <c r="AS178">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT178">
         <v>0</v>
@@ -40920,7 +40920,7 @@
         <v>0</v>
       </c>
       <c r="AS179">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="AT179">
         <v>7</v>
@@ -41138,7 +41138,7 @@
         <v>0</v>
       </c>
       <c r="AS180">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -41335,7 +41335,7 @@
         <v>0</v>
       </c>
       <c r="AL181">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM181">
         <v>2</v>
@@ -41356,7 +41356,7 @@
         <v>0</v>
       </c>
       <c r="AS181">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="AT181">
         <v>0</v>
@@ -41431,7 +41431,7 @@
         <v>1</v>
       </c>
       <c r="BR181">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BS181">
         <v>0</v>
@@ -41574,7 +41574,7 @@
         <v>0</v>
       </c>
       <c r="AS182">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT182">
         <v>0</v>
@@ -41649,7 +41649,7 @@
         <v>2</v>
       </c>
       <c r="BR182">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BS182">
         <v>0</v>
@@ -41792,7 +41792,7 @@
         <v>0</v>
       </c>
       <c r="AS183">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT183">
         <v>1</v>
@@ -42010,7 +42010,7 @@
         <v>0</v>
       </c>
       <c r="AS184">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT184">
         <v>10</v>
@@ -42228,7 +42228,7 @@
         <v>0</v>
       </c>
       <c r="AS185">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT185">
         <v>0</v>
@@ -42446,7 +42446,7 @@
         <v>0</v>
       </c>
       <c r="AS186">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT186">
         <v>1</v>
@@ -42664,7 +42664,7 @@
         <v>0</v>
       </c>
       <c r="AS187">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT187">
         <v>1</v>
@@ -42882,10 +42882,10 @@
         <v>0</v>
       </c>
       <c r="AS188">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU188">
         <v>0</v>
@@ -42957,7 +42957,7 @@
         <v>1</v>
       </c>
       <c r="BR188">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BS188">
         <v>0</v>
@@ -43100,7 +43100,7 @@
         <v>0</v>
       </c>
       <c r="AS189">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT189">
         <v>0</v>
@@ -43318,7 +43318,7 @@
         <v>0</v>
       </c>
       <c r="AS190">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="AT190">
         <v>0</v>
@@ -43536,7 +43536,7 @@
         <v>0</v>
       </c>
       <c r="AS191">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -43754,7 +43754,7 @@
         <v>0</v>
       </c>
       <c r="AS192">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT192">
         <v>0</v>
@@ -43972,7 +43972,7 @@
         <v>0</v>
       </c>
       <c r="AS193">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AT193">
         <v>3</v>
@@ -44190,7 +44190,7 @@
         <v>0</v>
       </c>
       <c r="AS194">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AT194">
         <v>0</v>
@@ -44408,7 +44408,7 @@
         <v>0</v>
       </c>
       <c r="AS195">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT195">
         <v>0</v>
@@ -44626,7 +44626,7 @@
         <v>0</v>
       </c>
       <c r="AS196">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT196">
         <v>0</v>
@@ -44844,7 +44844,7 @@
         <v>0</v>
       </c>
       <c r="AS197">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT197">
         <v>0</v>
@@ -45062,7 +45062,7 @@
         <v>0</v>
       </c>
       <c r="AS198">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT198">
         <v>0</v>
@@ -45280,7 +45280,7 @@
         <v>0</v>
       </c>
       <c r="AS199">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT199">
         <v>6</v>
@@ -45498,10 +45498,10 @@
         <v>0</v>
       </c>
       <c r="AS200">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT200">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AU200">
         <v>0</v>
@@ -45716,7 +45716,7 @@
         <v>0</v>
       </c>
       <c r="AS201">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT201">
         <v>2</v>
@@ -45934,7 +45934,7 @@
         <v>0</v>
       </c>
       <c r="AS202">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT202">
         <v>1</v>
@@ -46035,7 +46035,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -46110,7 +46110,7 @@
         <v>2</v>
       </c>
       <c r="AE203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF203">
         <v>0</v>
@@ -46152,7 +46152,7 @@
         <v>0</v>
       </c>
       <c r="AS203">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AT203">
         <v>0</v>
@@ -46370,7 +46370,7 @@
         <v>0</v>
       </c>
       <c r="AS204">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT204">
         <v>3</v>
@@ -46427,7 +46427,7 @@
         <v>0</v>
       </c>
       <c r="BL204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM204">
         <v>0</v>
@@ -46588,7 +46588,7 @@
         <v>0</v>
       </c>
       <c r="AS205">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT205">
         <v>0</v>
@@ -46806,7 +46806,7 @@
         <v>0</v>
       </c>
       <c r="AS206">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT206">
         <v>6</v>
@@ -46949,7 +46949,7 @@
         <v>0</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U207">
         <v>0</v>
@@ -47024,7 +47024,7 @@
         <v>0</v>
       </c>
       <c r="AS207">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT207">
         <v>0</v>
@@ -47242,7 +47242,7 @@
         <v>0</v>
       </c>
       <c r="AS208">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AT208">
         <v>0</v>
@@ -47385,7 +47385,7 @@
         <v>0</v>
       </c>
       <c r="T209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U209">
         <v>1</v>
@@ -47460,7 +47460,7 @@
         <v>0</v>
       </c>
       <c r="AS209">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AT209">
         <v>0</v>
@@ -47636,7 +47636,7 @@
         <v>0</v>
       </c>
       <c r="AE210">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AF210">
         <v>0</v>
@@ -47678,7 +47678,7 @@
         <v>0</v>
       </c>
       <c r="AS210">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="AT210">
         <v>6</v>
@@ -47896,7 +47896,7 @@
         <v>0</v>
       </c>
       <c r="AS211">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT211">
         <v>0</v>
@@ -47956,13 +47956,13 @@
         <v>0</v>
       </c>
       <c r="BM211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN211">
         <v>0</v>
       </c>
       <c r="BO211">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BP211">
         <v>0</v>
@@ -47971,7 +47971,7 @@
         <v>2</v>
       </c>
       <c r="BR211">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BS211">
         <v>0</v>
@@ -48114,7 +48114,7 @@
         <v>0</v>
       </c>
       <c r="AS212">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT212">
         <v>1</v>
@@ -48332,7 +48332,7 @@
         <v>0</v>
       </c>
       <c r="AS213">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT213">
         <v>0</v>
@@ -48550,7 +48550,7 @@
         <v>0</v>
       </c>
       <c r="AS214">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="AT214">
         <v>0</v>
@@ -48768,7 +48768,7 @@
         <v>0</v>
       </c>
       <c r="AS215">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="AT215">
         <v>1</v>
@@ -48986,7 +48986,7 @@
         <v>0</v>
       </c>
       <c r="AS216">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="AT216">
         <v>0</v>
@@ -49204,7 +49204,7 @@
         <v>0</v>
       </c>
       <c r="AS217">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT217">
         <v>0</v>
@@ -49422,7 +49422,7 @@
         <v>0</v>
       </c>
       <c r="AS218">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT218">
         <v>1</v>
@@ -49640,7 +49640,7 @@
         <v>0</v>
       </c>
       <c r="AS219">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT219">
         <v>1</v>
@@ -49858,7 +49858,7 @@
         <v>0</v>
       </c>
       <c r="AS220">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT220">
         <v>0</v>
@@ -50076,7 +50076,7 @@
         <v>0</v>
       </c>
       <c r="AS221">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="AT221">
         <v>0</v>
@@ -50151,7 +50151,7 @@
         <v>7</v>
       </c>
       <c r="BR221">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BS221">
         <v>0</v>
@@ -50294,7 +50294,7 @@
         <v>0</v>
       </c>
       <c r="AS222">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT222">
         <v>0</v>
@@ -50512,7 +50512,7 @@
         <v>0</v>
       </c>
       <c r="AS223">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT223">
         <v>0</v>
@@ -50730,7 +50730,7 @@
         <v>0</v>
       </c>
       <c r="AS224">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT224">
         <v>1</v>
@@ -50948,7 +50948,7 @@
         <v>0</v>
       </c>
       <c r="AS225">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT225">
         <v>0</v>
@@ -51166,7 +51166,7 @@
         <v>0</v>
       </c>
       <c r="AS226">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT226">
         <v>4</v>
@@ -51384,7 +51384,7 @@
         <v>0</v>
       </c>
       <c r="AS227">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AT227">
         <v>1</v>
@@ -51602,7 +51602,7 @@
         <v>0</v>
       </c>
       <c r="AS228">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT228">
         <v>1</v>
@@ -51820,7 +51820,7 @@
         <v>0</v>
       </c>
       <c r="AS229">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT229">
         <v>1</v>
@@ -52038,7 +52038,7 @@
         <v>0</v>
       </c>
       <c r="AS230">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT230">
         <v>0</v>
@@ -52181,7 +52181,7 @@
         <v>0</v>
       </c>
       <c r="T231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U231">
         <v>0</v>
@@ -52256,7 +52256,7 @@
         <v>0</v>
       </c>
       <c r="AS231">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="AT231">
         <v>2</v>
@@ -52331,7 +52331,7 @@
         <v>0</v>
       </c>
       <c r="BR231">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BS231">
         <v>0</v>
@@ -52474,7 +52474,7 @@
         <v>0</v>
       </c>
       <c r="AS232">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT232">
         <v>0</v>
@@ -52692,7 +52692,7 @@
         <v>0</v>
       </c>
       <c r="AS233">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AT233">
         <v>7</v>
@@ -52910,7 +52910,7 @@
         <v>0</v>
       </c>
       <c r="AS234">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT234">
         <v>0</v>
@@ -53128,7 +53128,7 @@
         <v>0</v>
       </c>
       <c r="AS235">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT235">
         <v>0</v>
@@ -53346,7 +53346,7 @@
         <v>0</v>
       </c>
       <c r="AS236">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AT236">
         <v>0</v>
@@ -53564,7 +53564,7 @@
         <v>0</v>
       </c>
       <c r="AS237">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT237">
         <v>0</v>
@@ -53782,7 +53782,7 @@
         <v>0</v>
       </c>
       <c r="AS238">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="AT238">
         <v>0</v>
@@ -54000,7 +54000,7 @@
         <v>0</v>
       </c>
       <c r="AS239">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="AT239">
         <v>2</v>
@@ -54218,7 +54218,7 @@
         <v>0</v>
       </c>
       <c r="AS240">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT240">
         <v>0</v>
@@ -54436,7 +54436,7 @@
         <v>0</v>
       </c>
       <c r="AS241">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AT241">
         <v>0</v>
@@ -54654,7 +54654,7 @@
         <v>0</v>
       </c>
       <c r="AS242">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AT242">
         <v>0</v>
@@ -54696,7 +54696,7 @@
         <v>0</v>
       </c>
       <c r="BG242">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH242">
         <v>0</v>
@@ -54708,7 +54708,7 @@
         <v>2</v>
       </c>
       <c r="BK242">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BL242">
         <v>0</v>
@@ -54872,7 +54872,7 @@
         <v>0</v>
       </c>
       <c r="AS243">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT243">
         <v>0</v>
@@ -55090,7 +55090,7 @@
         <v>0</v>
       </c>
       <c r="AS244">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT244">
         <v>0</v>
@@ -55165,7 +55165,7 @@
         <v>5</v>
       </c>
       <c r="BR244">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BS244">
         <v>0</v>
@@ -55308,7 +55308,7 @@
         <v>0</v>
       </c>
       <c r="AS245">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT245">
         <v>1</v>
@@ -55526,7 +55526,7 @@
         <v>0</v>
       </c>
       <c r="AS246">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT246">
         <v>0</v>
@@ -55601,7 +55601,7 @@
         <v>0</v>
       </c>
       <c r="BR246">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BS246">
         <v>0</v>
@@ -55744,7 +55744,7 @@
         <v>0</v>
       </c>
       <c r="AS247">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT247">
         <v>1</v>
@@ -55962,7 +55962,7 @@
         <v>0</v>
       </c>
       <c r="AS248">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AT248">
         <v>7</v>
@@ -56180,7 +56180,7 @@
         <v>0</v>
       </c>
       <c r="AS249">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="AT249">
         <v>0</v>
@@ -56198,7 +56198,7 @@
         <v>0</v>
       </c>
       <c r="AY249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ249">
         <v>0</v>
@@ -56323,7 +56323,7 @@
         <v>0</v>
       </c>
       <c r="T250">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U250">
         <v>0</v>
@@ -56398,7 +56398,7 @@
         <v>0</v>
       </c>
       <c r="AS250">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AT250">
         <v>2</v>
@@ -56616,7 +56616,7 @@
         <v>0</v>
       </c>
       <c r="AS251">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AT251">
         <v>6</v>
@@ -56691,7 +56691,7 @@
         <v>0</v>
       </c>
       <c r="BR251">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BS251">
         <v>0</v>
@@ -56834,7 +56834,7 @@
         <v>0</v>
       </c>
       <c r="AS252">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AT252">
         <v>4</v>
@@ -57052,7 +57052,7 @@
         <v>0</v>
       </c>
       <c r="AS253">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AT253">
         <v>8</v>
@@ -57270,7 +57270,7 @@
         <v>0</v>
       </c>
       <c r="AS254">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT254">
         <v>1</v>
@@ -57488,7 +57488,7 @@
         <v>0</v>
       </c>
       <c r="AS255">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AT255">
         <v>0</v>
@@ -57706,7 +57706,7 @@
         <v>0</v>
       </c>
       <c r="AS256">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT256">
         <v>0</v>
@@ -57924,7 +57924,7 @@
         <v>0</v>
       </c>
       <c r="AS257">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AT257">
         <v>2</v>
@@ -58142,7 +58142,7 @@
         <v>0</v>
       </c>
       <c r="AS258">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AT258">
         <v>0</v>
@@ -58360,7 +58360,7 @@
         <v>0</v>
       </c>
       <c r="AS259">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AT259">
         <v>0</v>
@@ -58435,7 +58435,7 @@
         <v>0</v>
       </c>
       <c r="BR259">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BS259">
         <v>0</v>
@@ -58503,7 +58503,7 @@
         <v>0</v>
       </c>
       <c r="T260">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U260">
         <v>0</v>
@@ -58578,7 +58578,7 @@
         <v>0</v>
       </c>
       <c r="AS260">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT260">
         <v>0</v>
@@ -58796,7 +58796,7 @@
         <v>0</v>
       </c>
       <c r="AS261">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT261">
         <v>0</v>
@@ -58939,7 +58939,7 @@
         <v>0</v>
       </c>
       <c r="T262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U262">
         <v>0</v>
@@ -59014,10 +59014,10 @@
         <v>0</v>
       </c>
       <c r="AS262">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU262">
         <v>0</v>
@@ -59232,7 +59232,7 @@
         <v>0</v>
       </c>
       <c r="AS263">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT263">
         <v>0</v>
@@ -59375,7 +59375,7 @@
         <v>0</v>
       </c>
       <c r="T264">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U264">
         <v>1</v>
@@ -59408,10 +59408,10 @@
         <v>13</v>
       </c>
       <c r="AE264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG264">
         <v>0</v>
@@ -59450,7 +59450,7 @@
         <v>0</v>
       </c>
       <c r="AS264">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT264">
         <v>0</v>
@@ -59668,7 +59668,7 @@
         <v>0</v>
       </c>
       <c r="AS265">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT265">
         <v>3</v>
@@ -59886,7 +59886,7 @@
         <v>0</v>
       </c>
       <c r="AS266">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="AT266">
         <v>0</v>
@@ -59952,7 +59952,7 @@
         <v>0</v>
       </c>
       <c r="BO266">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BP266">
         <v>2</v>
@@ -60104,7 +60104,7 @@
         <v>0</v>
       </c>
       <c r="AS267">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="AT267">
         <v>0</v>
@@ -60179,7 +60179,7 @@
         <v>0</v>
       </c>
       <c r="BR267">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BS267">
         <v>0</v>
@@ -60322,7 +60322,7 @@
         <v>0</v>
       </c>
       <c r="AS268">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AT268">
         <v>12</v>
@@ -60540,7 +60540,7 @@
         <v>0</v>
       </c>
       <c r="AS269">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT269">
         <v>0</v>
@@ -60758,7 +60758,7 @@
         <v>0</v>
       </c>
       <c r="AS270">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="AT270">
         <v>0</v>
@@ -60833,7 +60833,7 @@
         <v>0</v>
       </c>
       <c r="BR270">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BS270">
         <v>0</v>
@@ -60976,7 +60976,7 @@
         <v>0</v>
       </c>
       <c r="AS271">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AT271">
         <v>0</v>
@@ -61030,7 +61030,7 @@
         <v>0</v>
       </c>
       <c r="BK271">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL271">
         <v>0</v>
@@ -61194,7 +61194,7 @@
         <v>0</v>
       </c>
       <c r="AS272">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="AT272">
         <v>0</v>
@@ -61412,7 +61412,7 @@
         <v>0</v>
       </c>
       <c r="AS273">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="AT273">
         <v>0</v>
@@ -61630,7 +61630,7 @@
         <v>0</v>
       </c>
       <c r="AS274">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AT274">
         <v>4</v>
@@ -61848,7 +61848,7 @@
         <v>0</v>
       </c>
       <c r="AS275">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="AT275">
         <v>0</v>
@@ -62066,7 +62066,7 @@
         <v>0</v>
       </c>
       <c r="AS276">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AT276">
         <v>0</v>
@@ -62284,7 +62284,7 @@
         <v>0</v>
       </c>
       <c r="AS277">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT277">
         <v>0</v>
@@ -62502,7 +62502,7 @@
         <v>0</v>
       </c>
       <c r="AS278">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AT278">
         <v>20</v>
@@ -62720,7 +62720,7 @@
         <v>0</v>
       </c>
       <c r="AS279">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT279">
         <v>0</v>
@@ -62938,7 +62938,7 @@
         <v>0</v>
       </c>
       <c r="AS280">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AT280">
         <v>2</v>
@@ -63156,7 +63156,7 @@
         <v>0</v>
       </c>
       <c r="AS281">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AT281">
         <v>0</v>
@@ -63374,7 +63374,7 @@
         <v>0</v>
       </c>
       <c r="AS282">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AT282">
         <v>0</v>
@@ -63449,7 +63449,7 @@
         <v>0</v>
       </c>
       <c r="BR282">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BS282">
         <v>0</v>
@@ -63592,7 +63592,7 @@
         <v>0</v>
       </c>
       <c r="AS283">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AT283">
         <v>0</v>
@@ -63810,7 +63810,7 @@
         <v>0</v>
       </c>
       <c r="AS284">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT284">
         <v>1</v>
@@ -63876,7 +63876,7 @@
         <v>0</v>
       </c>
       <c r="BO284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP284">
         <v>0</v>
@@ -63989,7 +63989,7 @@
         <v>3</v>
       </c>
       <c r="AF285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG285">
         <v>0</v>
@@ -64028,7 +64028,7 @@
         <v>0</v>
       </c>
       <c r="AS285">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AT285">
         <v>0</v>
@@ -64246,7 +64246,7 @@
         <v>0</v>
       </c>
       <c r="AS286">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT286">
         <v>0</v>
@@ -64464,7 +64464,7 @@
         <v>0</v>
       </c>
       <c r="AS287">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT287">
         <v>0</v>
@@ -64682,7 +64682,7 @@
         <v>0</v>
       </c>
       <c r="AS288">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT288">
         <v>0</v>
@@ -64900,7 +64900,7 @@
         <v>0</v>
       </c>
       <c r="AS289">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AT289">
         <v>0</v>
@@ -65118,7 +65118,7 @@
         <v>0</v>
       </c>
       <c r="AS290">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT290">
         <v>0</v>
@@ -65336,7 +65336,7 @@
         <v>0</v>
       </c>
       <c r="AS291">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AT291">
         <v>0</v>
@@ -65411,7 +65411,7 @@
         <v>5</v>
       </c>
       <c r="BR291">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="BS291">
         <v>0</v>
@@ -65554,7 +65554,7 @@
         <v>0</v>
       </c>
       <c r="AS292">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AT292">
         <v>0</v>
@@ -65772,7 +65772,7 @@
         <v>0</v>
       </c>
       <c r="AS293">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AT293">
         <v>0</v>
@@ -65990,7 +65990,7 @@
         <v>0</v>
       </c>
       <c r="AS294">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AT294">
         <v>0</v>
@@ -66065,7 +66065,7 @@
         <v>5</v>
       </c>
       <c r="BR294">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BS294">
         <v>0</v>
@@ -66208,7 +66208,7 @@
         <v>0</v>
       </c>
       <c r="AS295">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT295">
         <v>0</v>
@@ -66426,7 +66426,7 @@
         <v>0</v>
       </c>
       <c r="AS296">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT296">
         <v>0</v>
@@ -66569,7 +66569,7 @@
         <v>0</v>
       </c>
       <c r="T297">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U297">
         <v>0</v>
@@ -66638,13 +66638,13 @@
         <v>0</v>
       </c>
       <c r="AQ297">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR297">
         <v>0</v>
       </c>
       <c r="AS297">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AT297">
         <v>2</v>
@@ -66862,7 +66862,7 @@
         <v>0</v>
       </c>
       <c r="AS298">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AT298">
         <v>0</v>
@@ -67080,7 +67080,7 @@
         <v>0</v>
       </c>
       <c r="AS299">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AT299">
         <v>0</v>
@@ -67181,7 +67181,7 @@
         <v>0</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -67298,10 +67298,10 @@
         <v>0</v>
       </c>
       <c r="AS300">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AT300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU300">
         <v>0</v>
@@ -67516,7 +67516,7 @@
         <v>0</v>
       </c>
       <c r="AS301">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT301">
         <v>0</v>
@@ -67555,7 +67555,7 @@
         <v>0</v>
       </c>
       <c r="BF301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG301">
         <v>1</v>
@@ -67734,7 +67734,7 @@
         <v>0</v>
       </c>
       <c r="AS302">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT302">
         <v>0</v>
@@ -67952,7 +67952,7 @@
         <v>0</v>
       </c>
       <c r="AS303">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT303">
         <v>2</v>
@@ -68053,7 +68053,7 @@
         <v>0</v>
       </c>
       <c r="F304">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -68170,7 +68170,7 @@
         <v>0</v>
       </c>
       <c r="AS304">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AT304">
         <v>0</v>
@@ -68388,7 +68388,7 @@
         <v>0</v>
       </c>
       <c r="AS305">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT305">
         <v>0</v>
@@ -68606,7 +68606,7 @@
         <v>0</v>
       </c>
       <c r="AS306">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT306">
         <v>0</v>
@@ -68824,7 +68824,7 @@
         <v>0</v>
       </c>
       <c r="AS307">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT307">
         <v>0</v>
@@ -68967,7 +68967,7 @@
         <v>0</v>
       </c>
       <c r="T308">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U308">
         <v>0</v>
@@ -69042,7 +69042,7 @@
         <v>0</v>
       </c>
       <c r="AS308">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT308">
         <v>0</v>
@@ -69260,7 +69260,7 @@
         <v>0</v>
       </c>
       <c r="AS309">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AT309">
         <v>1</v>
@@ -69478,7 +69478,7 @@
         <v>0</v>
       </c>
       <c r="AS310">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT310">
         <v>2</v>
@@ -69696,7 +69696,7 @@
         <v>0</v>
       </c>
       <c r="AS311">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT311">
         <v>0</v>
@@ -69914,7 +69914,7 @@
         <v>0</v>
       </c>
       <c r="AS312">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT312">
         <v>0</v>
@@ -70132,7 +70132,7 @@
         <v>0</v>
       </c>
       <c r="AS313">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT313">
         <v>1</v>
@@ -70350,7 +70350,7 @@
         <v>0</v>
       </c>
       <c r="AS314">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT314">
         <v>3</v>
@@ -70568,7 +70568,7 @@
         <v>0</v>
       </c>
       <c r="AS315">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT315">
         <v>1</v>
@@ -70711,7 +70711,7 @@
         <v>0</v>
       </c>
       <c r="T316">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U316">
         <v>0</v>
@@ -70786,7 +70786,7 @@
         <v>0</v>
       </c>
       <c r="AS316">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT316">
         <v>0</v>
@@ -71004,7 +71004,7 @@
         <v>0</v>
       </c>
       <c r="AS317">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT317">
         <v>0</v>
@@ -71222,7 +71222,7 @@
         <v>0</v>
       </c>
       <c r="AS318">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AT318">
         <v>2</v>
@@ -71288,7 +71288,7 @@
         <v>0</v>
       </c>
       <c r="BO318">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BP318">
         <v>0</v>
@@ -71440,7 +71440,7 @@
         <v>0</v>
       </c>
       <c r="AS319">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AT319">
         <v>0</v>
@@ -71658,7 +71658,7 @@
         <v>0</v>
       </c>
       <c r="AS320">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT320">
         <v>0</v>
@@ -71876,10 +71876,10 @@
         <v>0</v>
       </c>
       <c r="AS321">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU321">
         <v>0</v>
@@ -72094,7 +72094,7 @@
         <v>0</v>
       </c>
       <c r="AS322">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT322">
         <v>1</v>
@@ -72312,7 +72312,7 @@
         <v>0</v>
       </c>
       <c r="AS323">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT323">
         <v>0</v>
@@ -72387,7 +72387,7 @@
         <v>1</v>
       </c>
       <c r="BR323">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BS323">
         <v>0</v>
@@ -72530,7 +72530,7 @@
         <v>0</v>
       </c>
       <c r="AS324">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="AT324">
         <v>0</v>
@@ -72748,7 +72748,7 @@
         <v>0</v>
       </c>
       <c r="AS325">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT325">
         <v>1</v>
@@ -72966,7 +72966,7 @@
         <v>0</v>
       </c>
       <c r="AS326">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT326">
         <v>18</v>
@@ -73184,7 +73184,7 @@
         <v>0</v>
       </c>
       <c r="AS327">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT327">
         <v>5</v>
@@ -73402,7 +73402,7 @@
         <v>0</v>
       </c>
       <c r="AS328">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT328">
         <v>0</v>
@@ -73620,7 +73620,7 @@
         <v>0</v>
       </c>
       <c r="AS329">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AT329">
         <v>1</v>
@@ -73695,7 +73695,7 @@
         <v>1</v>
       </c>
       <c r="BR329">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BS329">
         <v>0</v>
@@ -73838,7 +73838,7 @@
         <v>0</v>
       </c>
       <c r="AS330">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT330">
         <v>2</v>
@@ -73981,7 +73981,7 @@
         <v>0</v>
       </c>
       <c r="T331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U331">
         <v>0</v>
@@ -74056,7 +74056,7 @@
         <v>0</v>
       </c>
       <c r="AS331">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AT331">
         <v>1</v>
@@ -74274,7 +74274,7 @@
         <v>0</v>
       </c>
       <c r="AS332">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT332">
         <v>0</v>
@@ -74334,7 +74334,7 @@
         <v>0</v>
       </c>
       <c r="BM332">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BN332">
         <v>0</v>
@@ -74492,7 +74492,7 @@
         <v>0</v>
       </c>
       <c r="AS333">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="AT333">
         <v>14</v>
@@ -74567,7 +74567,7 @@
         <v>0</v>
       </c>
       <c r="BR333">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BS333">
         <v>0</v>
@@ -74710,7 +74710,7 @@
         <v>0</v>
       </c>
       <c r="AS334">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="AT334">
         <v>0</v>
@@ -74928,10 +74928,10 @@
         <v>0</v>
       </c>
       <c r="AS335">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU335">
         <v>0</v>
@@ -75146,7 +75146,7 @@
         <v>0</v>
       </c>
       <c r="AS336">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AT336">
         <v>0</v>
@@ -75364,7 +75364,7 @@
         <v>0</v>
       </c>
       <c r="AS337">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT337">
         <v>0</v>
@@ -75582,7 +75582,7 @@
         <v>1</v>
       </c>
       <c r="AS338">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT338">
         <v>0</v>
@@ -75800,10 +75800,10 @@
         <v>0</v>
       </c>
       <c r="AS339">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU339">
         <v>0</v>
@@ -75988,7 +75988,7 @@
         <v>1</v>
       </c>
       <c r="AI340">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ340">
         <v>1</v>
@@ -76018,7 +76018,7 @@
         <v>0</v>
       </c>
       <c r="AS340">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AT340">
         <v>0</v>
@@ -76078,7 +76078,7 @@
         <v>0</v>
       </c>
       <c r="BM340">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BN340">
         <v>0</v>
@@ -76236,7 +76236,7 @@
         <v>0</v>
       </c>
       <c r="AS341">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT341">
         <v>0</v>
@@ -76379,7 +76379,7 @@
         <v>1</v>
       </c>
       <c r="T342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U342">
         <v>0</v>
@@ -76454,7 +76454,7 @@
         <v>0</v>
       </c>
       <c r="AS342">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="AT342">
         <v>0</v>
@@ -76529,7 +76529,7 @@
         <v>0</v>
       </c>
       <c r="BR342">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BS342">
         <v>0</v>
@@ -76672,7 +76672,7 @@
         <v>0</v>
       </c>
       <c r="AS343">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AT343">
         <v>0</v>
@@ -76890,7 +76890,7 @@
         <v>0</v>
       </c>
       <c r="AS344">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT344">
         <v>2</v>
@@ -77033,7 +77033,7 @@
         <v>0</v>
       </c>
       <c r="T345">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U345">
         <v>0</v>
@@ -77108,7 +77108,7 @@
         <v>0</v>
       </c>
       <c r="AS345">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AT345">
         <v>1</v>
@@ -77326,7 +77326,7 @@
         <v>0</v>
       </c>
       <c r="AS346">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT346">
         <v>0</v>
@@ -77544,7 +77544,7 @@
         <v>0</v>
       </c>
       <c r="AS347">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AT347">
         <v>1</v>
@@ -77762,7 +77762,7 @@
         <v>0</v>
       </c>
       <c r="AS348">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AT348">
         <v>1</v>
@@ -77980,7 +77980,7 @@
         <v>0</v>
       </c>
       <c r="AS349">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="AT349">
         <v>1</v>
@@ -78198,7 +78198,7 @@
         <v>0</v>
       </c>
       <c r="AS350">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AT350">
         <v>3</v>
@@ -78416,7 +78416,7 @@
         <v>0</v>
       </c>
       <c r="AS351">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AT351">
         <v>0</v>
@@ -78559,7 +78559,7 @@
         <v>0</v>
       </c>
       <c r="T352">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U352">
         <v>0</v>
@@ -78613,7 +78613,7 @@
         <v>0</v>
       </c>
       <c r="AL352">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM352">
         <v>0</v>
@@ -78634,7 +78634,7 @@
         <v>0</v>
       </c>
       <c r="AS352">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="AT352">
         <v>2</v>
@@ -78709,7 +78709,7 @@
         <v>4</v>
       </c>
       <c r="BR352">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BS352">
         <v>0</v>
@@ -78852,7 +78852,7 @@
         <v>0</v>
       </c>
       <c r="AS353">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT353">
         <v>0</v>
@@ -79070,7 +79070,7 @@
         <v>0</v>
       </c>
       <c r="AS354">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT354">
         <v>0</v>
@@ -79288,7 +79288,7 @@
         <v>0</v>
       </c>
       <c r="AS355">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT355">
         <v>0</v>
@@ -79506,7 +79506,7 @@
         <v>4</v>
       </c>
       <c r="AS356">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AT356">
         <v>16</v>
@@ -79649,7 +79649,7 @@
         <v>0</v>
       </c>
       <c r="T357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U357">
         <v>0</v>
@@ -79724,7 +79724,7 @@
         <v>0</v>
       </c>
       <c r="AS357">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AT357">
         <v>0</v>
@@ -79942,7 +79942,7 @@
         <v>0</v>
       </c>
       <c r="AS358">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AT358">
         <v>1</v>
@@ -80160,7 +80160,7 @@
         <v>0</v>
       </c>
       <c r="AS359">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT359">
         <v>0</v>
@@ -80235,7 +80235,7 @@
         <v>0</v>
       </c>
       <c r="BR359">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BS359">
         <v>0</v>
@@ -80378,7 +80378,7 @@
         <v>0</v>
       </c>
       <c r="AS360">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT360">
         <v>2</v>
@@ -80596,7 +80596,7 @@
         <v>0</v>
       </c>
       <c r="AS361">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT361">
         <v>0</v>
@@ -80814,7 +80814,7 @@
         <v>0</v>
       </c>
       <c r="AS362">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT362">
         <v>2</v>
@@ -80957,7 +80957,7 @@
         <v>0</v>
       </c>
       <c r="T363">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U363">
         <v>0</v>
@@ -80990,7 +80990,7 @@
         <v>0</v>
       </c>
       <c r="AE363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF363">
         <v>0</v>
@@ -81032,7 +81032,7 @@
         <v>0</v>
       </c>
       <c r="AS363">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AT363">
         <v>0</v>
@@ -81107,7 +81107,7 @@
         <v>1</v>
       </c>
       <c r="BR363">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="BS363">
         <v>0</v>
@@ -81208,7 +81208,7 @@
         <v>2</v>
       </c>
       <c r="AE364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF364">
         <v>0</v>
@@ -81250,7 +81250,7 @@
         <v>0</v>
       </c>
       <c r="AS364">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AT364">
         <v>0</v>
@@ -81468,7 +81468,7 @@
         <v>0</v>
       </c>
       <c r="AS365">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AT365">
         <v>0</v>
@@ -81686,7 +81686,7 @@
         <v>0</v>
       </c>
       <c r="AS366">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT366">
         <v>0</v>
@@ -81904,7 +81904,7 @@
         <v>0</v>
       </c>
       <c r="AS367">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AT367">
         <v>0</v>
@@ -81970,7 +81970,7 @@
         <v>0</v>
       </c>
       <c r="BO367">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BP367">
         <v>0</v>
@@ -81979,7 +81979,7 @@
         <v>8</v>
       </c>
       <c r="BR367">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BS367">
         <v>0</v>
@@ -82122,7 +82122,7 @@
         <v>0</v>
       </c>
       <c r="AS368">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT368">
         <v>3</v>
@@ -82340,7 +82340,7 @@
         <v>0</v>
       </c>
       <c r="AS369">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="AT369">
         <v>13</v>
@@ -82406,7 +82406,7 @@
         <v>0</v>
       </c>
       <c r="BO369">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BP369">
         <v>1</v>
@@ -82483,7 +82483,7 @@
         <v>0</v>
       </c>
       <c r="T370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U370">
         <v>0</v>
@@ -82558,7 +82558,7 @@
         <v>0</v>
       </c>
       <c r="AS370">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT370">
         <v>2</v>
@@ -82776,7 +82776,7 @@
         <v>0</v>
       </c>
       <c r="AS371">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT371">
         <v>0</v>
@@ -82994,7 +82994,7 @@
         <v>0</v>
       </c>
       <c r="AS372">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AT372">
         <v>0</v>
@@ -83069,7 +83069,7 @@
         <v>0</v>
       </c>
       <c r="BR372">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BS372">
         <v>0</v>
@@ -83212,7 +83212,7 @@
         <v>0</v>
       </c>
       <c r="AS373">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="AT373">
         <v>0</v>
@@ -83278,7 +83278,7 @@
         <v>0</v>
       </c>
       <c r="BO373">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BP373">
         <v>0</v>
@@ -83430,7 +83430,7 @@
         <v>0</v>
       </c>
       <c r="AS374">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT374">
         <v>0</v>
@@ -83648,7 +83648,7 @@
         <v>0</v>
       </c>
       <c r="AS375">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT375">
         <v>0</v>
@@ -83866,10 +83866,10 @@
         <v>0</v>
       </c>
       <c r="AS376">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AT376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU376">
         <v>0</v>
@@ -84084,7 +84084,7 @@
         <v>0</v>
       </c>
       <c r="AS377">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AT377">
         <v>0</v>
@@ -84159,7 +84159,7 @@
         <v>4</v>
       </c>
       <c r="BR377">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BS377">
         <v>0</v>
@@ -84302,7 +84302,7 @@
         <v>0</v>
       </c>
       <c r="AS378">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT378">
         <v>0</v>
@@ -84520,7 +84520,7 @@
         <v>0</v>
       </c>
       <c r="AS379">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT379">
         <v>0</v>
@@ -84738,7 +84738,7 @@
         <v>0</v>
       </c>
       <c r="AS380">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="AT380">
         <v>0</v>
@@ -84798,13 +84798,13 @@
         <v>0</v>
       </c>
       <c r="BM380">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BN380">
         <v>0</v>
       </c>
       <c r="BO380">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP380">
         <v>0</v>
@@ -84956,7 +84956,7 @@
         <v>0</v>
       </c>
       <c r="AS381">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT381">
         <v>2</v>
@@ -85174,7 +85174,7 @@
         <v>0</v>
       </c>
       <c r="AS382">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="AT382">
         <v>5</v>
@@ -85240,7 +85240,7 @@
         <v>0</v>
       </c>
       <c r="BO382">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BP382">
         <v>0</v>
@@ -85392,7 +85392,7 @@
         <v>0</v>
       </c>
       <c r="AS383">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT383">
         <v>0</v>
@@ -85610,7 +85610,7 @@
         <v>0</v>
       </c>
       <c r="AS384">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="AT384">
         <v>6</v>
@@ -85670,7 +85670,7 @@
         <v>0</v>
       </c>
       <c r="BM384">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BN384">
         <v>0</v>
@@ -85828,7 +85828,7 @@
         <v>0</v>
       </c>
       <c r="AS385">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT385">
         <v>1</v>
@@ -86046,7 +86046,7 @@
         <v>0</v>
       </c>
       <c r="AS386">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="AT386">
         <v>0</v>
@@ -86264,7 +86264,7 @@
         <v>0</v>
       </c>
       <c r="AS387">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AT387">
         <v>0</v>
@@ -86330,7 +86330,7 @@
         <v>0</v>
       </c>
       <c r="BO387">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BP387">
         <v>0</v>
@@ -86339,7 +86339,7 @@
         <v>4</v>
       </c>
       <c r="BR387">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BS387">
         <v>0</v>
@@ -86482,7 +86482,7 @@
         <v>0</v>
       </c>
       <c r="AS388">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AT388">
         <v>4</v>
@@ -86700,7 +86700,7 @@
         <v>0</v>
       </c>
       <c r="AS389">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="AT389">
         <v>0</v>
@@ -86918,7 +86918,7 @@
         <v>0</v>
       </c>
       <c r="AS390">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT390">
         <v>4</v>
@@ -87136,7 +87136,7 @@
         <v>0</v>
       </c>
       <c r="AS391">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AT391">
         <v>0</v>
@@ -87354,7 +87354,7 @@
         <v>0</v>
       </c>
       <c r="AS392">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT392">
         <v>0</v>
@@ -87572,7 +87572,7 @@
         <v>0</v>
       </c>
       <c r="AS393">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="AT393">
         <v>0</v>
@@ -87647,7 +87647,7 @@
         <v>0</v>
       </c>
       <c r="BR393">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BS393">
         <v>0</v>
@@ -87790,7 +87790,7 @@
         <v>0</v>
       </c>
       <c r="AS394">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT394">
         <v>0</v>
@@ -88008,7 +88008,7 @@
         <v>0</v>
       </c>
       <c r="AS395">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT395">
         <v>0</v>
@@ -88226,7 +88226,7 @@
         <v>0</v>
       </c>
       <c r="AS396">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT396">
         <v>0</v>
@@ -88444,7 +88444,7 @@
         <v>0</v>
       </c>
       <c r="AS397">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="AT397">
         <v>0</v>
@@ -88662,7 +88662,7 @@
         <v>0</v>
       </c>
       <c r="AS398">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT398">
         <v>0</v>
@@ -88880,7 +88880,7 @@
         <v>0</v>
       </c>
       <c r="AS399">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT399">
         <v>0</v>
@@ -89098,7 +89098,7 @@
         <v>0</v>
       </c>
       <c r="AS400">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT400">
         <v>0</v>
@@ -89152,7 +89152,7 @@
         <v>0</v>
       </c>
       <c r="BK400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL400">
         <v>0</v>
@@ -89316,7 +89316,7 @@
         <v>0</v>
       </c>
       <c r="AS401">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT401">
         <v>0</v>
@@ -89534,7 +89534,7 @@
         <v>0</v>
       </c>
       <c r="AS402">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT402">
         <v>2</v>
@@ -89752,7 +89752,7 @@
         <v>0</v>
       </c>
       <c r="AS403">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT403">
         <v>0</v>
@@ -89970,7 +89970,7 @@
         <v>0</v>
       </c>
       <c r="AS404">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT404">
         <v>0</v>
@@ -90188,7 +90188,7 @@
         <v>0</v>
       </c>
       <c r="AS405">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AT405">
         <v>0</v>
@@ -90406,7 +90406,7 @@
         <v>0</v>
       </c>
       <c r="AS406">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AT406">
         <v>0</v>
@@ -90624,7 +90624,7 @@
         <v>0</v>
       </c>
       <c r="AS407">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT407">
         <v>0</v>
@@ -90842,7 +90842,7 @@
         <v>0</v>
       </c>
       <c r="AS408">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="AT408">
         <v>6</v>
@@ -90860,7 +90860,7 @@
         <v>0</v>
       </c>
       <c r="AY408">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ408">
         <v>0</v>
@@ -91060,7 +91060,7 @@
         <v>0</v>
       </c>
       <c r="AS409">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AT409">
         <v>0</v>
@@ -91278,7 +91278,7 @@
         <v>0</v>
       </c>
       <c r="AS410">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AT410">
         <v>0</v>
@@ -91496,7 +91496,7 @@
         <v>0</v>
       </c>
       <c r="AS411">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT411">
         <v>0</v>
@@ -91714,7 +91714,7 @@
         <v>0</v>
       </c>
       <c r="AS412">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AT412">
         <v>10</v>
@@ -91789,7 +91789,7 @@
         <v>6</v>
       </c>
       <c r="BR412">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BS412">
         <v>0</v>
@@ -91932,7 +91932,7 @@
         <v>0</v>
       </c>
       <c r="AS413">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT413">
         <v>0</v>
@@ -92150,7 +92150,7 @@
         <v>0</v>
       </c>
       <c r="AS414">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="AT414">
         <v>2</v>
@@ -92225,7 +92225,7 @@
         <v>3</v>
       </c>
       <c r="BR414">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BS414">
         <v>0</v>
@@ -92368,7 +92368,7 @@
         <v>0</v>
       </c>
       <c r="AS415">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AT415">
         <v>0</v>
@@ -92586,7 +92586,7 @@
         <v>0</v>
       </c>
       <c r="AS416">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AT416">
         <v>0</v>
@@ -92804,7 +92804,7 @@
         <v>0</v>
       </c>
       <c r="AS417">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT417">
         <v>0</v>
@@ -92879,7 +92879,7 @@
         <v>0</v>
       </c>
       <c r="BR417">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BS417">
         <v>0</v>
@@ -93022,7 +93022,7 @@
         <v>0</v>
       </c>
       <c r="AS418">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AT418">
         <v>0</v>
@@ -93240,7 +93240,7 @@
         <v>0</v>
       </c>
       <c r="AS419">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AT419">
         <v>2</v>
@@ -93458,10 +93458,10 @@
         <v>0</v>
       </c>
       <c r="AS420">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="AT420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU420">
         <v>0</v>
@@ -93524,7 +93524,7 @@
         <v>0</v>
       </c>
       <c r="BO420">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BP420">
         <v>0</v>
@@ -93676,7 +93676,7 @@
         <v>0</v>
       </c>
       <c r="AS421">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AT421">
         <v>0</v>
@@ -93894,7 +93894,7 @@
         <v>0</v>
       </c>
       <c r="AS422">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AT422">
         <v>4</v>
@@ -94112,7 +94112,7 @@
         <v>0</v>
       </c>
       <c r="AS423">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT423">
         <v>0</v>
@@ -94330,7 +94330,7 @@
         <v>0</v>
       </c>
       <c r="AS424">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT424">
         <v>2</v>
@@ -94548,7 +94548,7 @@
         <v>0</v>
       </c>
       <c r="AS425">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT425">
         <v>2</v>
@@ -94766,7 +94766,7 @@
         <v>0</v>
       </c>
       <c r="AS426">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AT426">
         <v>0</v>
@@ -94841,7 +94841,7 @@
         <v>1</v>
       </c>
       <c r="BR426">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BS426">
         <v>0</v>
@@ -94984,7 +94984,7 @@
         <v>0</v>
       </c>
       <c r="AS427">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AT427">
         <v>0</v>
@@ -95202,7 +95202,7 @@
         <v>0</v>
       </c>
       <c r="AS428">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT428">
         <v>0</v>
@@ -95277,7 +95277,7 @@
         <v>2</v>
       </c>
       <c r="BR428">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BS428">
         <v>0</v>
@@ -95420,7 +95420,7 @@
         <v>0</v>
       </c>
       <c r="AS429">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AT429">
         <v>0</v>
@@ -95638,7 +95638,7 @@
         <v>0</v>
       </c>
       <c r="AS430">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT430">
         <v>14</v>
@@ -95856,7 +95856,7 @@
         <v>0</v>
       </c>
       <c r="AS431">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AT431">
         <v>0</v>
@@ -96044,7 +96044,7 @@
         <v>0</v>
       </c>
       <c r="AI432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ432">
         <v>0</v>
@@ -96074,7 +96074,7 @@
         <v>0</v>
       </c>
       <c r="AS432">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT432">
         <v>53</v>
@@ -96292,10 +96292,10 @@
         <v>0</v>
       </c>
       <c r="AS433">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT433">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AU433">
         <v>0</v>
@@ -96435,7 +96435,7 @@
         <v>0</v>
       </c>
       <c r="T434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U434">
         <v>0</v>
@@ -96510,7 +96510,7 @@
         <v>0</v>
       </c>
       <c r="AS434">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT434">
         <v>0</v>
@@ -96728,7 +96728,7 @@
         <v>0</v>
       </c>
       <c r="AS435">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AT435">
         <v>0</v>
@@ -96803,7 +96803,7 @@
         <v>0</v>
       </c>
       <c r="BR435">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BS435">
         <v>0</v>
@@ -96946,7 +96946,7 @@
         <v>0</v>
       </c>
       <c r="AS436">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT436">
         <v>0</v>
@@ -97164,7 +97164,7 @@
         <v>0</v>
       </c>
       <c r="AS437">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="AT437">
         <v>6</v>
@@ -97239,7 +97239,7 @@
         <v>3</v>
       </c>
       <c r="BR437">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BS437">
         <v>0</v>
@@ -97382,7 +97382,7 @@
         <v>0</v>
       </c>
       <c r="AS438">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="AT438">
         <v>0</v>
@@ -97600,7 +97600,7 @@
         <v>0</v>
       </c>
       <c r="AS439">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AT439">
         <v>0</v>
@@ -97675,7 +97675,7 @@
         <v>0</v>
       </c>
       <c r="BR439">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BS439">
         <v>0</v>
@@ -97818,7 +97818,7 @@
         <v>0</v>
       </c>
       <c r="AS440">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AT440">
         <v>14</v>
@@ -97961,7 +97961,7 @@
         <v>0</v>
       </c>
       <c r="T441">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U441">
         <v>0</v>
@@ -98036,7 +98036,7 @@
         <v>0</v>
       </c>
       <c r="AS441">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="AT441">
         <v>3</v>
@@ -98212,7 +98212,7 @@
         <v>1</v>
       </c>
       <c r="AE442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF442">
         <v>1</v>
@@ -98254,7 +98254,7 @@
         <v>0</v>
       </c>
       <c r="AS442">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AT442">
         <v>0</v>
@@ -98472,7 +98472,7 @@
         <v>0</v>
       </c>
       <c r="AS443">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AT443">
         <v>0</v>
@@ -98690,7 +98690,7 @@
         <v>0</v>
       </c>
       <c r="AS444">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT444">
         <v>2</v>
@@ -98908,7 +98908,7 @@
         <v>0</v>
       </c>
       <c r="AS445">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT445">
         <v>0</v>
@@ -99126,7 +99126,7 @@
         <v>0</v>
       </c>
       <c r="AS446">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AT446">
         <v>0</v>
@@ -99344,7 +99344,7 @@
         <v>0</v>
       </c>
       <c r="AS447">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AT447">
         <v>0</v>
@@ -99410,7 +99410,7 @@
         <v>0</v>
       </c>
       <c r="BO447">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP447">
         <v>0</v>
@@ -99562,7 +99562,7 @@
         <v>0</v>
       </c>
       <c r="AS448">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT448">
         <v>20</v>
@@ -99637,7 +99637,7 @@
         <v>0</v>
       </c>
       <c r="BR448">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BS448">
         <v>0</v>
@@ -99780,7 +99780,7 @@
         <v>0</v>
       </c>
       <c r="AS449">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT449">
         <v>0</v>
@@ -99998,7 +99998,7 @@
         <v>0</v>
       </c>
       <c r="AS450">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AT450">
         <v>0</v>
@@ -100216,7 +100216,7 @@
         <v>0</v>
       </c>
       <c r="AS451">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AT451">
         <v>2</v>
@@ -100291,7 +100291,7 @@
         <v>0</v>
       </c>
       <c r="BR451">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS451">
         <v>0</v>
@@ -100434,7 +100434,7 @@
         <v>0</v>
       </c>
       <c r="AS452">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT452">
         <v>0</v>
@@ -100577,7 +100577,7 @@
         <v>0</v>
       </c>
       <c r="T453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U453">
         <v>0</v>
@@ -100652,7 +100652,7 @@
         <v>0</v>
       </c>
       <c r="AS453">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AT453">
         <v>0</v>
@@ -100870,7 +100870,7 @@
         <v>0</v>
       </c>
       <c r="AS454">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT454">
         <v>0</v>
@@ -101088,7 +101088,7 @@
         <v>0</v>
       </c>
       <c r="AS455">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AT455">
         <v>0</v>
@@ -101163,7 +101163,7 @@
         <v>2</v>
       </c>
       <c r="BR455">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BS455">
         <v>0</v>
@@ -101306,7 +101306,7 @@
         <v>0</v>
       </c>
       <c r="AS456">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT456">
         <v>7</v>
@@ -101524,7 +101524,7 @@
         <v>0</v>
       </c>
       <c r="AS457">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AT457">
         <v>0</v>
@@ -101599,7 +101599,7 @@
         <v>0</v>
       </c>
       <c r="BR457">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS457">
         <v>0</v>
@@ -101742,7 +101742,7 @@
         <v>0</v>
       </c>
       <c r="AS458">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AT458">
         <v>0</v>
@@ -101960,7 +101960,7 @@
         <v>0</v>
       </c>
       <c r="AS459">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AT459">
         <v>5</v>
@@ -102026,7 +102026,7 @@
         <v>0</v>
       </c>
       <c r="BO459">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BP459">
         <v>0</v>
@@ -102035,7 +102035,7 @@
         <v>7</v>
       </c>
       <c r="BR459">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BS459">
         <v>0</v>
@@ -102178,7 +102178,7 @@
         <v>0</v>
       </c>
       <c r="AS460">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AT460">
         <v>0</v>
@@ -102253,7 +102253,7 @@
         <v>3</v>
       </c>
       <c r="BR460">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS460">
         <v>0</v>
@@ -102396,7 +102396,7 @@
         <v>0</v>
       </c>
       <c r="AS461">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AT461">
         <v>0</v>
@@ -102614,7 +102614,7 @@
         <v>0</v>
       </c>
       <c r="AS462">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT462">
         <v>0</v>
@@ -102680,7 +102680,7 @@
         <v>0</v>
       </c>
       <c r="BO462">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP462">
         <v>0</v>
@@ -102832,7 +102832,7 @@
         <v>0</v>
       </c>
       <c r="AS463">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AT463">
         <v>0</v>
@@ -103050,7 +103050,7 @@
         <v>0</v>
       </c>
       <c r="AS464">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AT464">
         <v>1</v>
